--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_199.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_199.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,700 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
-        </is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4153846153846154</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(15.0, 20.28)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(26.987959, 33.059977)]</t>
+          <t>[('0:01:42.174263', '0:01:51.798209'), ('0:01:45.425056', '0:01:55.003287')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:02:26.280000', '0:02:29.120000'), ('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_268</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08104575163398693</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F#', 'B', 'B/7', 'B/6']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[['E', 'A', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[('0:00:04.940612', '0:00:07.123287')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:41.256621', '0:00:53.946326')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1004464285714286</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C/3', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(18.877585, 24.470647)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(61.597865, 66.393832)]</t>
+          <t>[('0:01:10.203514', '0:01:27.246961')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(35.22, 42.42)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(102.16, 113.9)]</t>
+          <t>[('0:00:04.860000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(35.14, 42.32)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(94.4, 104.48)]</t>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (74.96, 82.28)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9), (31.6, 33.8)]</t>
+          <t>[('0:02:00.660000', '0:02:02.740000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (27.46, 36.02)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3), (0.38, 3.7)]</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:09.620000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[('0:00:20.080000', '0:00:23.200000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:05.700000', '0:00:12.080000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>isophonics_220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_226</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4523809523809523</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D', 'D', 'D/7', 'D/6']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(62.02, 71.86)]</t>
+          <t>[['E', 'E/7', 'E/6', 'E/5']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[('0:00:00.325509', '0:00:03.756394')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:20.022335', '0:01:23.702698')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09807692307692308</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.8, 13.6)]</t>
+          <t>[('0:01:21.100000', '0:01:27.580000'), ('0:00:27.460000', '0:00:36.020000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:00:03.820000', '0:00:06.460000'), ('0:00:01.360000', '0:00:04.740000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>schubert-winterreise_208</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(11.5, 37.58)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(38.12, 52.64)]</t>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (52.42, 61.26), (1.54, 6.88)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98), (35.88, 37.42), (9.1, 13.86)]</t>
+          <t>[('0:00:25.260000', '0:00:52.580000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.7, 15.02)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(105.4, 123.26)]</t>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(16.04, 21.0)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(63.2, 73.12)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
